--- a/data/pca/factorExposure/factorExposure_2010-03-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-26.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01627333319204568</v>
+        <v>-0.01702429101667119</v>
       </c>
       <c r="C2">
-        <v>-0.01131010542878982</v>
+        <v>-0.0009803427495890548</v>
       </c>
       <c r="D2">
-        <v>0.01626501329944749</v>
+        <v>-0.008298467223219856</v>
       </c>
       <c r="E2">
-        <v>-0.008365257292754023</v>
+        <v>-6.820283887988881e-05</v>
       </c>
       <c r="F2">
-        <v>-0.01880301792289204</v>
+        <v>-0.01026682862439399</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1220397012030901</v>
+        <v>-0.09341880201478087</v>
       </c>
       <c r="C4">
-        <v>-0.06769440291132607</v>
+        <v>-0.0157380577181773</v>
       </c>
       <c r="D4">
-        <v>0.004555210658466647</v>
+        <v>-0.08498952201861903</v>
       </c>
       <c r="E4">
-        <v>0.005123751403800831</v>
+        <v>-0.03087236046190296</v>
       </c>
       <c r="F4">
-        <v>0.008113953117248843</v>
+        <v>0.03046439345568541</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1197942380440044</v>
+        <v>-0.154813403487922</v>
       </c>
       <c r="C6">
-        <v>0.00770943058907716</v>
+        <v>-0.02457149503157096</v>
       </c>
       <c r="D6">
-        <v>0.01362483242997874</v>
+        <v>0.02239004611921721</v>
       </c>
       <c r="E6">
-        <v>-0.02878102649508606</v>
+        <v>-0.00890483886428468</v>
       </c>
       <c r="F6">
-        <v>0.05444514282870337</v>
+        <v>0.04921635715574777</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07542635283685781</v>
+        <v>-0.05909143932903888</v>
       </c>
       <c r="C7">
-        <v>-0.06566244482070926</v>
+        <v>0.0009775630006597768</v>
       </c>
       <c r="D7">
-        <v>0.02956387157201762</v>
+        <v>-0.05251840935964996</v>
       </c>
       <c r="E7">
-        <v>-0.02318013545933901</v>
+        <v>-0.0155703162108635</v>
       </c>
       <c r="F7">
-        <v>-0.0299513461464568</v>
+        <v>0.04868011909056652</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05393178638766848</v>
+        <v>-0.05776871881607564</v>
       </c>
       <c r="C8">
-        <v>-0.03609037561961469</v>
+        <v>0.01336274110235603</v>
       </c>
       <c r="D8">
-        <v>0.01852867657496441</v>
+        <v>-0.03288438956708006</v>
       </c>
       <c r="E8">
-        <v>0.008051769023822798</v>
+        <v>-0.01604637961884828</v>
       </c>
       <c r="F8">
-        <v>0.02363551892774456</v>
+        <v>-0.03013955457211289</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08792883385561701</v>
+        <v>-0.07114241556928728</v>
       </c>
       <c r="C9">
-        <v>-0.05688800188285031</v>
+        <v>-0.01169177540577106</v>
       </c>
       <c r="D9">
-        <v>0.01414299814764791</v>
+        <v>-0.08434549911298334</v>
       </c>
       <c r="E9">
-        <v>0.01395263950664096</v>
+        <v>-0.0254899784432614</v>
       </c>
       <c r="F9">
-        <v>-0.008999183305074113</v>
+        <v>0.05179569441076465</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1021239120686301</v>
+        <v>-0.0954323557684966</v>
       </c>
       <c r="C10">
-        <v>0.1819623011759086</v>
+        <v>-0.0180544404889528</v>
       </c>
       <c r="D10">
-        <v>-0.000906564147553629</v>
+        <v>0.1713565876346618</v>
       </c>
       <c r="E10">
-        <v>-0.004994082881632179</v>
+        <v>0.04036200359831641</v>
       </c>
       <c r="F10">
-        <v>-0.04982123758428308</v>
+        <v>-0.05419283163040748</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08059601863524396</v>
+        <v>-0.08746806096646895</v>
       </c>
       <c r="C11">
-        <v>-0.05264349787528855</v>
+        <v>-0.01136080891668212</v>
       </c>
       <c r="D11">
-        <v>0.02386098984611734</v>
+        <v>-0.1145721171698858</v>
       </c>
       <c r="E11">
-        <v>0.01862214584546268</v>
+        <v>-0.04963947565070603</v>
       </c>
       <c r="F11">
-        <v>0.01216753352124115</v>
+        <v>0.01875423332042309</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08259621746255991</v>
+        <v>-0.09192471130141192</v>
       </c>
       <c r="C12">
-        <v>-0.07642306451712932</v>
+        <v>-0.008927466312548274</v>
       </c>
       <c r="D12">
-        <v>0.03484723046178375</v>
+        <v>-0.1234938118970808</v>
       </c>
       <c r="E12">
-        <v>0.06108473629662577</v>
+        <v>-0.04869634001949336</v>
       </c>
       <c r="F12">
-        <v>-0.0173110062850095</v>
+        <v>0.01889544585172523</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03167559907475066</v>
+        <v>-0.04285692058075284</v>
       </c>
       <c r="C13">
-        <v>-0.03223741261994947</v>
+        <v>-0.003934175466027493</v>
       </c>
       <c r="D13">
-        <v>0.006723199974220352</v>
+        <v>-0.04711888471652255</v>
       </c>
       <c r="E13">
-        <v>-0.02197161117374141</v>
+        <v>0.0115538704649153</v>
       </c>
       <c r="F13">
-        <v>-0.01045832597223707</v>
+        <v>0.01266451849258924</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03558230600362754</v>
+        <v>-0.02231048806253224</v>
       </c>
       <c r="C14">
-        <v>-0.01042477867849172</v>
+        <v>-0.01426292752156485</v>
       </c>
       <c r="D14">
-        <v>-0.008227018248794333</v>
+        <v>-0.03141769131594642</v>
       </c>
       <c r="E14">
-        <v>0.02153137449697758</v>
+        <v>-0.0189798425898859</v>
       </c>
       <c r="F14">
-        <v>0.008374419157651757</v>
+        <v>0.01681943630777268</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0174121733316572</v>
+        <v>-0.03140625541350366</v>
       </c>
       <c r="C15">
-        <v>-0.00916285039650939</v>
+        <v>-0.005273751418915493</v>
       </c>
       <c r="D15">
-        <v>0.01271272159000155</v>
+        <v>-0.04518410491904765</v>
       </c>
       <c r="E15">
-        <v>-0.04541195907030869</v>
+        <v>-0.009217081965527011</v>
       </c>
       <c r="F15">
-        <v>-0.01851711582319789</v>
+        <v>0.0291865713388829</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08750392581283006</v>
+        <v>-0.07319003422827482</v>
       </c>
       <c r="C16">
-        <v>-0.063095659355376</v>
+        <v>-0.002747932319534696</v>
       </c>
       <c r="D16">
-        <v>0.02688563390130403</v>
+        <v>-0.1183532167838448</v>
       </c>
       <c r="E16">
-        <v>0.04299555349550121</v>
+        <v>-0.06399600274764068</v>
       </c>
       <c r="F16">
-        <v>0.007621060735461112</v>
+        <v>0.02769644316831377</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02379008120926884</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003778380800216542</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.0187463715684118</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.008290173216858288</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.0170767611679215</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04956371694682797</v>
+        <v>-0.06053445648814355</v>
       </c>
       <c r="C20">
-        <v>-0.03679521663168433</v>
+        <v>-0.0004264289064888763</v>
       </c>
       <c r="D20">
-        <v>-0.01640426876536753</v>
+        <v>-0.07467110383033924</v>
       </c>
       <c r="E20">
-        <v>-0.02777072914128874</v>
+        <v>-0.05609074717641964</v>
       </c>
       <c r="F20">
-        <v>-0.009010914984152312</v>
+        <v>0.02666117647662969</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03191143108627844</v>
+        <v>-0.03880452185854266</v>
       </c>
       <c r="C21">
-        <v>-0.002495363082623274</v>
+        <v>-0.006811049136114853</v>
       </c>
       <c r="D21">
-        <v>-0.02349163823023774</v>
+        <v>-0.03653192737222516</v>
       </c>
       <c r="E21">
-        <v>0.01506880467686842</v>
+        <v>0.007682984933282991</v>
       </c>
       <c r="F21">
-        <v>0.02644462221947489</v>
+        <v>-0.02195098102801073</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03085845696436796</v>
+        <v>-0.04340384097175932</v>
       </c>
       <c r="C22">
-        <v>0.02393292968972142</v>
+        <v>-0.001029510792414075</v>
       </c>
       <c r="D22">
-        <v>0.05785968155248067</v>
+        <v>0.001456925435515942</v>
       </c>
       <c r="E22">
-        <v>-0.6038605321346545</v>
+        <v>-0.02789400385933155</v>
       </c>
       <c r="F22">
-        <v>-0.1664183576344356</v>
+        <v>-0.004541582903247042</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03108801430562776</v>
+        <v>-0.04345792452132096</v>
       </c>
       <c r="C23">
-        <v>0.0234778451226304</v>
+        <v>-0.001051849336227992</v>
       </c>
       <c r="D23">
-        <v>0.05905072762513228</v>
+        <v>0.001331111874108726</v>
       </c>
       <c r="E23">
-        <v>-0.6071802039907651</v>
+        <v>-0.02825074453005758</v>
       </c>
       <c r="F23">
-        <v>-0.1651358022536901</v>
+        <v>-0.004084830486094859</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08832487305072483</v>
+        <v>-0.07961108089972757</v>
       </c>
       <c r="C24">
-        <v>-0.06109013649934284</v>
+        <v>-0.003012960409277517</v>
       </c>
       <c r="D24">
-        <v>0.01453026815343451</v>
+        <v>-0.1187536218713259</v>
       </c>
       <c r="E24">
-        <v>0.03288594973281415</v>
+        <v>-0.05197003670076716</v>
       </c>
       <c r="F24">
-        <v>-0.00282117676453761</v>
+        <v>0.02033646870288204</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09363764613203031</v>
+        <v>-0.08468674467946921</v>
       </c>
       <c r="C25">
-        <v>-0.05187942792509569</v>
+        <v>-0.005105363715472441</v>
       </c>
       <c r="D25">
-        <v>0.02949596467011114</v>
+        <v>-0.1074583607489798</v>
       </c>
       <c r="E25">
-        <v>0.06421896011736748</v>
+        <v>-0.03467489490842256</v>
       </c>
       <c r="F25">
-        <v>-0.01056780734227399</v>
+        <v>0.02779613376431622</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0373946150446974</v>
+        <v>-0.0545004586418646</v>
       </c>
       <c r="C26">
-        <v>0.02618807104906524</v>
+        <v>-0.01472994639723041</v>
       </c>
       <c r="D26">
-        <v>-0.01760381452375783</v>
+        <v>-0.03817763037586368</v>
       </c>
       <c r="E26">
-        <v>-0.01201292630321794</v>
+        <v>-0.02787545746739343</v>
       </c>
       <c r="F26">
-        <v>0.02819503569689347</v>
+        <v>-0.01279382100831754</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1067432396047368</v>
+        <v>-0.1436858278777521</v>
       </c>
       <c r="C28">
-        <v>0.3171207385417611</v>
+        <v>-0.01687586218710422</v>
       </c>
       <c r="D28">
-        <v>0.03197617397476912</v>
+        <v>0.2658347430205664</v>
       </c>
       <c r="E28">
-        <v>0.04070210328778155</v>
+        <v>0.06943868451791572</v>
       </c>
       <c r="F28">
-        <v>0.005868181614807373</v>
+        <v>0.02806239698838536</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02993864289752696</v>
+        <v>-0.02699634683816836</v>
       </c>
       <c r="C29">
-        <v>-0.007719592772959625</v>
+        <v>-0.008587627401382034</v>
       </c>
       <c r="D29">
-        <v>0.0004410054234977718</v>
+        <v>-0.03042350168915257</v>
       </c>
       <c r="E29">
-        <v>0.03692381425948943</v>
+        <v>-0.0121921351017088</v>
       </c>
       <c r="F29">
-        <v>-0.0281601026451218</v>
+        <v>-0.01482018407856913</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1039857760847569</v>
+        <v>-0.06249705880607658</v>
       </c>
       <c r="C30">
-        <v>-0.1172471276353221</v>
+        <v>-0.004288567831779518</v>
       </c>
       <c r="D30">
-        <v>0.03950438056579093</v>
+        <v>-0.08684769914742492</v>
       </c>
       <c r="E30">
-        <v>0.04725438934110245</v>
+        <v>-0.02516915056682473</v>
       </c>
       <c r="F30">
-        <v>0.04197846053047878</v>
+        <v>0.1029757778078011</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02929763610532748</v>
+        <v>-0.04825156468259559</v>
       </c>
       <c r="C31">
-        <v>-0.02493676413045811</v>
+        <v>-0.0148096773074818</v>
       </c>
       <c r="D31">
-        <v>-0.004685214617827897</v>
+        <v>-0.02813423385869437</v>
       </c>
       <c r="E31">
-        <v>-0.003746294281876461</v>
+        <v>-0.02738976753687977</v>
       </c>
       <c r="F31">
-        <v>-0.001349584388434866</v>
+        <v>-0.005192583754688423</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.06060380739019509</v>
+        <v>-0.04769110843138831</v>
       </c>
       <c r="C32">
-        <v>-0.01819350446282509</v>
+        <v>0.0004273368255026199</v>
       </c>
       <c r="D32">
-        <v>-0.01410629251159266</v>
+        <v>-0.03081070047852642</v>
       </c>
       <c r="E32">
-        <v>0.06899495818065521</v>
+        <v>-0.03015089351546795</v>
       </c>
       <c r="F32">
-        <v>0.07167676199754973</v>
+        <v>0.001777647404385992</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09779165519643535</v>
+        <v>-0.08956498430178773</v>
       </c>
       <c r="C33">
-        <v>-0.06615999860416311</v>
+        <v>-0.008498154447086499</v>
       </c>
       <c r="D33">
-        <v>0.07583145979280895</v>
+        <v>-0.0964396120922799</v>
       </c>
       <c r="E33">
-        <v>0.02187561988962852</v>
+        <v>-0.04755153801201543</v>
       </c>
       <c r="F33">
-        <v>-0.007315470346745044</v>
+        <v>0.03928542484694809</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07540286544091053</v>
+        <v>-0.06734084534012567</v>
       </c>
       <c r="C34">
-        <v>-0.0556060805962155</v>
+        <v>-0.01187442040912226</v>
       </c>
       <c r="D34">
-        <v>0.01930990953980023</v>
+        <v>-0.0983630966624406</v>
       </c>
       <c r="E34">
-        <v>0.03596719659882306</v>
+        <v>-0.03570906123123191</v>
       </c>
       <c r="F34">
-        <v>-0.000655430247431421</v>
+        <v>0.03800238682055077</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.009834741743958875</v>
+        <v>-0.02456583246876661</v>
       </c>
       <c r="C35">
-        <v>-0.01006861016949646</v>
+        <v>-0.002367124479868244</v>
       </c>
       <c r="D35">
-        <v>0.002855336405648341</v>
+        <v>-0.01140118521399355</v>
       </c>
       <c r="E35">
-        <v>0.003758676386830707</v>
+        <v>-0.01100682416275113</v>
       </c>
       <c r="F35">
-        <v>-0.01156880159128784</v>
+        <v>0.008833023623180891</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02747542597147273</v>
+        <v>-0.02438641220574306</v>
       </c>
       <c r="C36">
-        <v>-0.009126504856927521</v>
+        <v>-0.007303622707963918</v>
       </c>
       <c r="D36">
-        <v>0.005496026101906262</v>
+        <v>-0.03711742384225011</v>
       </c>
       <c r="E36">
-        <v>-0.006973894013527633</v>
+        <v>-0.01757150856648602</v>
       </c>
       <c r="F36">
-        <v>0.01650516037454247</v>
+        <v>0.01388758885342172</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.007608462817712438</v>
+        <v>-0.001509164636185877</v>
       </c>
       <c r="C38">
-        <v>-0.007117136655652765</v>
+        <v>-0.0002377597397165811</v>
       </c>
       <c r="D38">
-        <v>0.005864955571507217</v>
+        <v>-0.001026616818819859</v>
       </c>
       <c r="E38">
-        <v>-0.02264704377983551</v>
+        <v>-0.001258398227253708</v>
       </c>
       <c r="F38">
-        <v>-0.03114805555911968</v>
+        <v>-0.001067622163532887</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1273890432059598</v>
+        <v>-0.1077208133760625</v>
       </c>
       <c r="C39">
-        <v>-0.1104871717896348</v>
+        <v>-0.01650838376893496</v>
       </c>
       <c r="D39">
-        <v>0.05883512460983047</v>
+        <v>-0.1551838198613449</v>
       </c>
       <c r="E39">
-        <v>0.1434219589892373</v>
+        <v>-0.06256612566266243</v>
       </c>
       <c r="F39">
-        <v>0.003103457122117537</v>
+        <v>0.02317994013722062</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.008467147283500155</v>
+        <v>-0.03715850157722756</v>
       </c>
       <c r="C40">
-        <v>-0.02422275894178374</v>
+        <v>-0.007218303187214174</v>
       </c>
       <c r="D40">
-        <v>-0.01131716006714298</v>
+        <v>-0.03158012610892772</v>
       </c>
       <c r="E40">
-        <v>-0.06623917527707522</v>
+        <v>-0.003419881675587354</v>
       </c>
       <c r="F40">
-        <v>-0.03541233409552966</v>
+        <v>-0.01383053927755615</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0232920774501054</v>
+        <v>-0.02639314242400136</v>
       </c>
       <c r="C41">
-        <v>0.002711215900772925</v>
+        <v>-0.00655675560418748</v>
       </c>
       <c r="D41">
-        <v>-0.006717624592373998</v>
+        <v>-0.01157917244116899</v>
       </c>
       <c r="E41">
-        <v>0.007897961056590104</v>
+        <v>-0.01261264377835865</v>
       </c>
       <c r="F41">
-        <v>-0.009442031070453112</v>
+        <v>-0.008362882538069768</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03608609178364307</v>
+        <v>-0.04042208758792724</v>
       </c>
       <c r="C43">
-        <v>-0.001054519534996688</v>
+        <v>-0.006637461772351734</v>
       </c>
       <c r="D43">
-        <v>0.01502228574465572</v>
+        <v>-0.02121511428316031</v>
       </c>
       <c r="E43">
-        <v>0.0037051790852338</v>
+        <v>-0.02492113177527975</v>
       </c>
       <c r="F43">
-        <v>0.004360495685215386</v>
+        <v>-0.01354127909111972</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1314889375388332</v>
+        <v>-0.07590837549766838</v>
       </c>
       <c r="C44">
-        <v>-0.144052250398989</v>
+        <v>-0.02142865070597836</v>
       </c>
       <c r="D44">
-        <v>0.05271882690790503</v>
+        <v>-0.09490107096107385</v>
       </c>
       <c r="E44">
-        <v>-0.09949405195001683</v>
+        <v>-0.07591854464477059</v>
       </c>
       <c r="F44">
-        <v>-0.117435709460938</v>
+        <v>0.1827757595701073</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01777680895077557</v>
+        <v>-0.02243666350155786</v>
       </c>
       <c r="C46">
-        <v>0.01595450363250973</v>
+        <v>-0.003560219532497663</v>
       </c>
       <c r="D46">
-        <v>0.01893580194574648</v>
+        <v>-0.01245156035107604</v>
       </c>
       <c r="E46">
-        <v>-0.02224120580248216</v>
+        <v>-0.02379719420823148</v>
       </c>
       <c r="F46">
-        <v>-0.0262389891724799</v>
+        <v>-0.0008567236894535893</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03782594662647849</v>
+        <v>-0.05165044063510092</v>
       </c>
       <c r="C47">
-        <v>-0.01063969503279905</v>
+        <v>-0.003166043741590156</v>
       </c>
       <c r="D47">
-        <v>-0.006810160144111937</v>
+        <v>-0.01420730721711702</v>
       </c>
       <c r="E47">
-        <v>0.004738633177180794</v>
+        <v>-0.02235276197127031</v>
       </c>
       <c r="F47">
-        <v>0.0008664837054271777</v>
+        <v>-0.04436046618366219</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.03558732964613071</v>
+        <v>-0.04748238715946922</v>
       </c>
       <c r="C48">
-        <v>0.001287053429167043</v>
+        <v>-0.002627098142487439</v>
       </c>
       <c r="D48">
-        <v>0.006225099594456335</v>
+        <v>-0.04930077636637133</v>
       </c>
       <c r="E48">
-        <v>0.009062576560850497</v>
+        <v>0.004040837475285784</v>
       </c>
       <c r="F48">
-        <v>-0.0006527317680861201</v>
+        <v>0.0100874041588173</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2271436359538715</v>
+        <v>-0.2027383192886804</v>
       </c>
       <c r="C49">
-        <v>-0.003371695519685126</v>
+        <v>-0.01760373114040023</v>
       </c>
       <c r="D49">
-        <v>-0.04612624355252679</v>
+        <v>0.01003015235904261</v>
       </c>
       <c r="E49">
-        <v>0.01465574768129701</v>
+        <v>-0.03346840737051262</v>
       </c>
       <c r="F49">
-        <v>-0.05429697913829716</v>
+        <v>0.02982731405681434</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03801059646206612</v>
+        <v>-0.04813440975243306</v>
       </c>
       <c r="C50">
-        <v>-0.01987081791452582</v>
+        <v>-0.01097176435451597</v>
       </c>
       <c r="D50">
-        <v>-0.009127876180148193</v>
+        <v>-0.02679938088345889</v>
       </c>
       <c r="E50">
-        <v>0.008989796371298452</v>
+        <v>-0.02992737560458244</v>
       </c>
       <c r="F50">
-        <v>-0.002803574477973091</v>
+        <v>0.008514489680671873</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01147442122666579</v>
+        <v>-0.002181085394606987</v>
       </c>
       <c r="C51">
-        <v>0.01534742857833205</v>
+        <v>-0.0005532039048118837</v>
       </c>
       <c r="D51">
-        <v>0.01498197724079395</v>
+        <v>0.002357854484535619</v>
       </c>
       <c r="E51">
-        <v>-0.006540196568426547</v>
+        <v>0.0001220270102395712</v>
       </c>
       <c r="F51">
-        <v>-0.01337559071050953</v>
+        <v>0.004669078681535056</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1076175697317335</v>
+        <v>-0.1447577876435907</v>
       </c>
       <c r="C52">
-        <v>-0.08019661974400731</v>
+        <v>-0.01395515891123289</v>
       </c>
       <c r="D52">
-        <v>0.01293231320129938</v>
+        <v>-0.05092474974393231</v>
       </c>
       <c r="E52">
-        <v>0.009369633164263483</v>
+        <v>-0.02432572000066857</v>
       </c>
       <c r="F52">
-        <v>-0.0104532472110534</v>
+        <v>0.03446835879169378</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1625580099086318</v>
+        <v>-0.1739055642628085</v>
       </c>
       <c r="C53">
-        <v>-0.03869645712219347</v>
+        <v>-0.01689036332596062</v>
       </c>
       <c r="D53">
-        <v>0.008896775781679375</v>
+        <v>-0.01119313539799559</v>
       </c>
       <c r="E53">
-        <v>-0.02286874802184632</v>
+        <v>-0.0353287279948043</v>
       </c>
       <c r="F53">
-        <v>-0.03309628091851709</v>
+        <v>0.06759563725267739</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.04940572406205786</v>
+        <v>-0.0218514262304853</v>
       </c>
       <c r="C54">
-        <v>-0.02301545878938939</v>
+        <v>-0.01233718231847117</v>
       </c>
       <c r="D54">
-        <v>-0.003025079335120934</v>
+        <v>-0.03279978045921374</v>
       </c>
       <c r="E54">
-        <v>-0.02489562145592067</v>
+        <v>-0.01525103179076096</v>
       </c>
       <c r="F54">
-        <v>-0.0002869197453988171</v>
+        <v>-0.005794589584660266</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08346939521612844</v>
+        <v>-0.1142897780668987</v>
       </c>
       <c r="C55">
-        <v>-0.02801850047117478</v>
+        <v>-0.01552176083871788</v>
       </c>
       <c r="D55">
-        <v>0.05493142601640156</v>
+        <v>-0.01087827723593679</v>
       </c>
       <c r="E55">
-        <v>0.02476932238094987</v>
+        <v>-0.03028555692616646</v>
       </c>
       <c r="F55">
-        <v>-0.00795798204678632</v>
+        <v>0.04531505792690402</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1570206818086059</v>
+        <v>-0.1775351684647639</v>
       </c>
       <c r="C56">
-        <v>-0.05559644728266889</v>
+        <v>-0.01435988783065741</v>
       </c>
       <c r="D56">
-        <v>0.0167120721930366</v>
+        <v>-0.007241278822063555</v>
       </c>
       <c r="E56">
-        <v>0.009448289031035588</v>
+        <v>-0.03942913495879304</v>
       </c>
       <c r="F56">
-        <v>-0.05193397837602132</v>
+        <v>0.04345575119246246</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04917574113682577</v>
+        <v>-0.04638791728466775</v>
       </c>
       <c r="C58">
-        <v>-0.003355933565056907</v>
+        <v>-0.001256752470815389</v>
       </c>
       <c r="D58">
-        <v>-0.005289756034736367</v>
+        <v>-0.06646458655320839</v>
       </c>
       <c r="E58">
-        <v>-0.05280086487660567</v>
+        <v>-0.02417321445617071</v>
       </c>
       <c r="F58">
-        <v>-0.0182594584077509</v>
+        <v>-0.04351840958346671</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1744141017357108</v>
+        <v>-0.1725380711088299</v>
       </c>
       <c r="C59">
-        <v>0.2462289929741222</v>
+        <v>-0.01755444055209353</v>
       </c>
       <c r="D59">
-        <v>0.05119009463816921</v>
+        <v>0.2231475836817505</v>
       </c>
       <c r="E59">
-        <v>0.05026376674670531</v>
+        <v>0.0491781233892882</v>
       </c>
       <c r="F59">
-        <v>-0.01695375449603799</v>
+        <v>-0.03322134070384296</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.274238311354495</v>
+        <v>-0.2356413080940071</v>
       </c>
       <c r="C60">
-        <v>-0.1629286854087102</v>
+        <v>0.004281940758778574</v>
       </c>
       <c r="D60">
-        <v>-0.03683568953951001</v>
+        <v>-0.0483299629013852</v>
       </c>
       <c r="E60">
-        <v>0.06033589418232403</v>
+        <v>-0.008047559480502483</v>
       </c>
       <c r="F60">
-        <v>-0.183857668631954</v>
+        <v>-0.03110508495305271</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1176174699489133</v>
+        <v>-0.08310701856425402</v>
       </c>
       <c r="C61">
-        <v>-0.07416550866094779</v>
+        <v>-0.01260581376605732</v>
       </c>
       <c r="D61">
-        <v>0.04060502433252324</v>
+        <v>-0.1146789755126334</v>
       </c>
       <c r="E61">
-        <v>0.08623915933786368</v>
+        <v>-0.04239462886680044</v>
       </c>
       <c r="F61">
-        <v>-0.02783895606816867</v>
+        <v>0.012399383272144</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1566757847393606</v>
+        <v>-0.1699840532458479</v>
       </c>
       <c r="C62">
-        <v>-0.04374856416843343</v>
+        <v>-0.01786199673004582</v>
       </c>
       <c r="D62">
-        <v>0.02749571458834717</v>
+        <v>-0.011626642771594</v>
       </c>
       <c r="E62">
-        <v>-0.006675752505657818</v>
+        <v>-0.03649402720789417</v>
       </c>
       <c r="F62">
-        <v>-0.04567347400374377</v>
+        <v>0.02426874512908001</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03715708456749741</v>
+        <v>-0.04205533108155133</v>
       </c>
       <c r="C63">
-        <v>0.009763008923576094</v>
+        <v>-0.002702180797245377</v>
       </c>
       <c r="D63">
-        <v>0.008079754598495444</v>
+        <v>-0.05206020800510448</v>
       </c>
       <c r="E63">
-        <v>0.002784340605863534</v>
+        <v>-0.02254332368821493</v>
       </c>
       <c r="F63">
-        <v>0.04474188823220149</v>
+        <v>0.005209565580778358</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09500450793788169</v>
+        <v>-0.1117016748715088</v>
       </c>
       <c r="C64">
-        <v>-0.02277756670442819</v>
+        <v>-0.01120177290252352</v>
       </c>
       <c r="D64">
-        <v>0.0005745118640937924</v>
+        <v>-0.04378322851935522</v>
       </c>
       <c r="E64">
-        <v>0.009763504359653905</v>
+        <v>-0.02066677090005712</v>
       </c>
       <c r="F64">
-        <v>-0.06286706309213118</v>
+        <v>0.02525746687268719</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1148881425075629</v>
+        <v>-0.1459988715215107</v>
       </c>
       <c r="C65">
-        <v>0.01116117715427591</v>
+        <v>-0.03132080822225333</v>
       </c>
       <c r="D65">
-        <v>0.009967637204081583</v>
+        <v>0.04330723176297677</v>
       </c>
       <c r="E65">
-        <v>0.007612066277800717</v>
+        <v>0.001002195962002075</v>
       </c>
       <c r="F65">
-        <v>0.05825205754887901</v>
+        <v>0.04907703184551075</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1464831941680245</v>
+        <v>-0.1287974179604022</v>
       </c>
       <c r="C66">
-        <v>-0.1349678340381254</v>
+        <v>-0.01428914813557986</v>
       </c>
       <c r="D66">
-        <v>0.0494379034184582</v>
+        <v>-0.143025745272731</v>
       </c>
       <c r="E66">
-        <v>0.11983218166455</v>
+        <v>-0.06937039829081826</v>
       </c>
       <c r="F66">
-        <v>-0.01444642510437027</v>
+        <v>0.02874660255483226</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06591432941020622</v>
+        <v>-0.06203700278585764</v>
       </c>
       <c r="C67">
-        <v>-0.03878339960010616</v>
+        <v>-0.003007718973722073</v>
       </c>
       <c r="D67">
-        <v>0.08209554979020058</v>
+        <v>-0.05368014018800778</v>
       </c>
       <c r="E67">
-        <v>-0.02270183820577661</v>
+        <v>-0.01765273007537786</v>
       </c>
       <c r="F67">
-        <v>-0.02141646416975534</v>
+        <v>-0.04085823411515037</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.09473213867929439</v>
+        <v>-0.1171919900286948</v>
       </c>
       <c r="C68">
-        <v>0.2723509249046594</v>
+        <v>-0.02745468578831672</v>
       </c>
       <c r="D68">
-        <v>0.01671189624526881</v>
+        <v>0.2613879691169798</v>
       </c>
       <c r="E68">
-        <v>0.04573253362951378</v>
+        <v>0.08777796742258115</v>
       </c>
       <c r="F68">
-        <v>0.0275352104948721</v>
+        <v>0.0312134453195257</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03287237140931464</v>
+        <v>-0.03915395701364198</v>
       </c>
       <c r="C69">
-        <v>0.003904599190379254</v>
+        <v>-0.0008969041730067035</v>
       </c>
       <c r="D69">
-        <v>0.0330261108715882</v>
+        <v>-0.009921447214106417</v>
       </c>
       <c r="E69">
-        <v>6.973473310341468e-05</v>
+        <v>-0.0241971868016864</v>
       </c>
       <c r="F69">
-        <v>-0.01421247194429245</v>
+        <v>-0.0103688647929041</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03179669169867941</v>
+        <v>-0.06229028639086608</v>
       </c>
       <c r="C70">
-        <v>0.007089070422327668</v>
+        <v>0.02877859943132617</v>
       </c>
       <c r="D70">
-        <v>0.04140621109561346</v>
+        <v>-0.03043981006737627</v>
       </c>
       <c r="E70">
-        <v>0.04007348611585588</v>
+        <v>0.0502703911359114</v>
       </c>
       <c r="F70">
-        <v>-0.03973649857518196</v>
+        <v>-0.2742434289946653</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1094694023630734</v>
+        <v>-0.1364207695249561</v>
       </c>
       <c r="C71">
-        <v>0.2891430387220557</v>
+        <v>-0.03173951829117169</v>
       </c>
       <c r="D71">
-        <v>0.03270342855806185</v>
+        <v>0.2762605338743344</v>
       </c>
       <c r="E71">
-        <v>0.03918621601139646</v>
+        <v>0.09605188327687852</v>
       </c>
       <c r="F71">
-        <v>-0.01834129327062892</v>
+        <v>0.0370956386796941</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1426052067357709</v>
+        <v>-0.1410906537493523</v>
       </c>
       <c r="C72">
-        <v>0.01435234807173812</v>
+        <v>-0.02491931231668355</v>
       </c>
       <c r="D72">
-        <v>-1.435908162111323e-05</v>
+        <v>-0.004252184968476061</v>
       </c>
       <c r="E72">
-        <v>-0.01124151992152036</v>
+        <v>-0.04450533237745786</v>
       </c>
       <c r="F72">
-        <v>0.009307987507070405</v>
+        <v>0.02586396091466603</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2257295963844825</v>
+        <v>-0.2029448389443446</v>
       </c>
       <c r="C73">
-        <v>-0.04887923842583211</v>
+        <v>-0.01152494356211053</v>
       </c>
       <c r="D73">
-        <v>0.05503939806274612</v>
+        <v>-0.01701532880349006</v>
       </c>
       <c r="E73">
-        <v>0.06202903971264934</v>
+        <v>-0.06335880167576997</v>
       </c>
       <c r="F73">
-        <v>-0.1239525116158361</v>
+        <v>0.03244961407278626</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1176408856818107</v>
+        <v>-0.09432058401996468</v>
       </c>
       <c r="C74">
-        <v>-0.04916980464179401</v>
+        <v>-0.01222770282786382</v>
       </c>
       <c r="D74">
-        <v>0.02239058249210064</v>
+        <v>-0.02088502879738371</v>
       </c>
       <c r="E74">
-        <v>-0.009464449732553327</v>
+        <v>-0.04865852443802127</v>
       </c>
       <c r="F74">
-        <v>-0.01605148790149902</v>
+        <v>0.04926984729930775</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1188188248253687</v>
+        <v>-0.1294450166807685</v>
       </c>
       <c r="C75">
-        <v>-0.05313801759088631</v>
+        <v>-0.0265078950152955</v>
       </c>
       <c r="D75">
-        <v>0.002506899996550057</v>
+        <v>-0.03440797207909495</v>
       </c>
       <c r="E75">
-        <v>-0.009547859435343992</v>
+        <v>-0.06069960358531079</v>
       </c>
       <c r="F75">
-        <v>0.01052280789021324</v>
+        <v>0.01409622774371131</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.01912123927315135</v>
+        <v>-0.003423898655206473</v>
       </c>
       <c r="C76">
-        <v>0.01538890314706937</v>
+        <v>-0.0008230809451366978</v>
       </c>
       <c r="D76">
-        <v>0.01134325052098609</v>
+        <v>0.002567477366146815</v>
       </c>
       <c r="E76">
-        <v>0.008244691445223743</v>
+        <v>-0.0004265810401865037</v>
       </c>
       <c r="F76">
-        <v>-0.02044619682556131</v>
+        <v>0.004023080437653414</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07119860393404263</v>
+        <v>-0.07867319321554303</v>
       </c>
       <c r="C77">
-        <v>-0.1141529406400483</v>
+        <v>-0.008807168050567129</v>
       </c>
       <c r="D77">
-        <v>-0.01072479788152688</v>
+        <v>-0.1164453676087067</v>
       </c>
       <c r="E77">
-        <v>0.007226447974181687</v>
+        <v>-0.03824830119311069</v>
       </c>
       <c r="F77">
-        <v>-0.06531418064860391</v>
+        <v>0.03096458754437423</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.119019809436108</v>
+        <v>-0.1041628065263748</v>
       </c>
       <c r="C78">
-        <v>-0.02882232173066648</v>
+        <v>-0.04010209456061539</v>
       </c>
       <c r="D78">
-        <v>0.0818223744140941</v>
+        <v>-0.1165501006127605</v>
       </c>
       <c r="E78">
-        <v>-0.3251278210986616</v>
+        <v>-0.08220912433328635</v>
       </c>
       <c r="F78">
-        <v>0.2911283103946933</v>
+        <v>0.0665502429528471</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1338848415939241</v>
+        <v>-0.1640594789621044</v>
       </c>
       <c r="C79">
-        <v>-0.05020200861774616</v>
+        <v>-0.02070488086028397</v>
       </c>
       <c r="D79">
-        <v>-0.01642400413806896</v>
+        <v>-0.01922432919524365</v>
       </c>
       <c r="E79">
-        <v>-0.000253159065159301</v>
+        <v>-0.04953862593433696</v>
       </c>
       <c r="F79">
-        <v>-0.02335600422074251</v>
+        <v>0.005177495787924369</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08436288456413585</v>
+        <v>-0.08085075346743961</v>
       </c>
       <c r="C80">
-        <v>-0.07801056321929678</v>
+        <v>0.0009575972243314802</v>
       </c>
       <c r="D80">
-        <v>0.07449119053324348</v>
+        <v>-0.05729073533627722</v>
       </c>
       <c r="E80">
-        <v>0.02657108696949719</v>
+        <v>-0.036754279076256</v>
       </c>
       <c r="F80">
-        <v>0.001045078893094697</v>
+        <v>-0.01714975451577709</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1398960884903787</v>
+        <v>-0.1233844838922497</v>
       </c>
       <c r="C81">
-        <v>-0.06244312402435202</v>
+        <v>-0.03036678441441567</v>
       </c>
       <c r="D81">
-        <v>0.009057447060319962</v>
+        <v>-0.01879438109159042</v>
       </c>
       <c r="E81">
-        <v>-0.009965586937484967</v>
+        <v>-0.05984779771911253</v>
       </c>
       <c r="F81">
-        <v>-0.01292245110064395</v>
+        <v>0.007037048279602749</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1597964742537525</v>
+        <v>-0.1641028676522859</v>
       </c>
       <c r="C82">
-        <v>-0.05418974198434399</v>
+        <v>-0.02246060067350924</v>
       </c>
       <c r="D82">
-        <v>0.02994270694680053</v>
+        <v>-0.01314460789283982</v>
       </c>
       <c r="E82">
-        <v>0.02510775541067466</v>
+        <v>-0.03532814377696379</v>
       </c>
       <c r="F82">
-        <v>-0.04152411034881677</v>
+        <v>0.06818189985709332</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08958815953936847</v>
+        <v>-0.06241935249728368</v>
       </c>
       <c r="C83">
-        <v>-0.06421200386490025</v>
+        <v>-0.003093987701968381</v>
       </c>
       <c r="D83">
-        <v>-0.0219425581100228</v>
+        <v>-0.0508073631613557</v>
       </c>
       <c r="E83">
-        <v>-0.04431805490086223</v>
+        <v>-0.005398468583519643</v>
       </c>
       <c r="F83">
-        <v>0.03262579664163807</v>
+        <v>-0.04371641418711499</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06593314135810555</v>
+        <v>-0.0590441892397732</v>
       </c>
       <c r="C84">
-        <v>0.001970076165160302</v>
+        <v>-0.01070239875111149</v>
       </c>
       <c r="D84">
-        <v>-0.008269830550186536</v>
+        <v>-0.06497304272747606</v>
       </c>
       <c r="E84">
-        <v>0.0715627614673057</v>
+        <v>-0.00362414096347083</v>
       </c>
       <c r="F84">
-        <v>-0.05719699260333046</v>
+        <v>0.01088815378033028</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1259797668244398</v>
+        <v>-0.139000934917206</v>
       </c>
       <c r="C85">
-        <v>-0.03565690658483929</v>
+        <v>-0.0263250997954857</v>
       </c>
       <c r="D85">
-        <v>0.008574829367082844</v>
+        <v>-0.0147661003197683</v>
       </c>
       <c r="E85">
-        <v>-2.373831519510036e-05</v>
+        <v>-0.04120684510749722</v>
       </c>
       <c r="F85">
-        <v>-0.036889023695304</v>
+        <v>0.04671885891965407</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1596793059028875</v>
+        <v>-0.09456516993444507</v>
       </c>
       <c r="C86">
-        <v>-0.01221631907807508</v>
+        <v>0.007072189422290928</v>
       </c>
       <c r="D86">
-        <v>-0.9369997693748389</v>
+        <v>-0.02379100839860829</v>
       </c>
       <c r="E86">
-        <v>-0.06551111753356363</v>
+        <v>-0.1515704539067754</v>
       </c>
       <c r="F86">
-        <v>0.03558070578327125</v>
+        <v>-0.8716173200183681</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1188706771304669</v>
+        <v>-0.0962940881169109</v>
       </c>
       <c r="C87">
-        <v>-0.1111269406051815</v>
+        <v>-0.02195667553978134</v>
       </c>
       <c r="D87">
-        <v>0.009915741047068613</v>
+        <v>-0.08988124451197232</v>
       </c>
       <c r="E87">
-        <v>0.004656182196794094</v>
+        <v>0.05438100113333442</v>
       </c>
       <c r="F87">
-        <v>-0.04548550274374474</v>
+        <v>0.08133841996269987</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05165006516869429</v>
+        <v>-0.0611121534937986</v>
       </c>
       <c r="C88">
-        <v>-0.02287154244092393</v>
+        <v>-0.002399296690545955</v>
       </c>
       <c r="D88">
-        <v>0.02015592909194383</v>
+        <v>-0.05438573755461554</v>
       </c>
       <c r="E88">
-        <v>0.05679780220076311</v>
+        <v>-0.02739545605395188</v>
       </c>
       <c r="F88">
-        <v>-0.0002613630454286023</v>
+        <v>0.009424295880794891</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1627787029998421</v>
+        <v>-0.1362633207073219</v>
       </c>
       <c r="C89">
-        <v>0.3569558891317915</v>
+        <v>-0.009873657258940611</v>
       </c>
       <c r="D89">
-        <v>0.03780574396638296</v>
+        <v>0.2545138113125265</v>
       </c>
       <c r="E89">
-        <v>-0.03342241245361147</v>
+        <v>0.0920977694951521</v>
       </c>
       <c r="F89">
-        <v>-0.03292087650081676</v>
+        <v>0.0153415309950611</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1215142872905175</v>
+        <v>-0.1477454857806005</v>
       </c>
       <c r="C90">
-        <v>0.2829567793259931</v>
+        <v>-0.02749811099740325</v>
       </c>
       <c r="D90">
-        <v>0.02164148516062183</v>
+        <v>0.266431204130507</v>
       </c>
       <c r="E90">
-        <v>0.05687495051413084</v>
+        <v>0.1088027738957805</v>
       </c>
       <c r="F90">
-        <v>-0.01709524408732102</v>
+        <v>0.01968018704280033</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08360516938353126</v>
+        <v>-0.1194102976862821</v>
       </c>
       <c r="C91">
-        <v>-0.03824295143181308</v>
+        <v>-0.01691953464407458</v>
       </c>
       <c r="D91">
-        <v>-0.01674771590619299</v>
+        <v>0.008069337576451108</v>
       </c>
       <c r="E91">
-        <v>-0.001212453494041696</v>
+        <v>-0.05747798995191292</v>
       </c>
       <c r="F91">
-        <v>-0.02797702060699209</v>
+        <v>-0.0163480210829857</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.137878122732327</v>
+        <v>-0.1505763886215308</v>
       </c>
       <c r="C92">
-        <v>0.3216815311604429</v>
+        <v>-0.01926832035752202</v>
       </c>
       <c r="D92">
-        <v>0.02918397243963791</v>
+        <v>0.2946987815732824</v>
       </c>
       <c r="E92">
-        <v>-0.007010362782762892</v>
+        <v>0.1043836735498249</v>
       </c>
       <c r="F92">
-        <v>-0.001853019912806945</v>
+        <v>0.01398484555590183</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1246455143997666</v>
+        <v>-0.1519597488307121</v>
       </c>
       <c r="C93">
-        <v>0.3212938232836748</v>
+        <v>-0.02344938753522013</v>
       </c>
       <c r="D93">
-        <v>0.008541707907968009</v>
+        <v>0.2657824177943741</v>
       </c>
       <c r="E93">
-        <v>0.08454711826159701</v>
+        <v>0.07573331867065318</v>
       </c>
       <c r="F93">
-        <v>-0.02981339282813704</v>
+        <v>0.01428241354146213</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1396903105814471</v>
+        <v>-0.1327086226218949</v>
       </c>
       <c r="C94">
-        <v>-0.0501999088632742</v>
+        <v>-0.0237369786196149</v>
       </c>
       <c r="D94">
-        <v>0.03902582606397454</v>
+        <v>-0.04588360196360659</v>
       </c>
       <c r="E94">
-        <v>-0.02227683995169481</v>
+        <v>-0.06121629955538241</v>
       </c>
       <c r="F94">
-        <v>-0.01692817179479372</v>
+        <v>0.03231395053361818</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1166305115261679</v>
+        <v>-0.1257308151205888</v>
       </c>
       <c r="C95">
-        <v>-0.04102909876409092</v>
+        <v>-0.004660808933452741</v>
       </c>
       <c r="D95">
-        <v>0.02591041544763456</v>
+        <v>-0.09004521405243208</v>
       </c>
       <c r="E95">
-        <v>-0.0243510174484452</v>
+        <v>-0.04433838792484904</v>
       </c>
       <c r="F95">
-        <v>-0.04140663188367933</v>
+        <v>-0.01442410822674435</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01426938002305853</v>
+        <v>-0.09899544865835441</v>
       </c>
       <c r="C96">
-        <v>0.00226890211431207</v>
+        <v>0.9887422375157305</v>
       </c>
       <c r="D96">
-        <v>-0.002513718486641715</v>
+        <v>0.03561245202931679</v>
       </c>
       <c r="E96">
-        <v>-0.007872026776236184</v>
+        <v>-0.05805998863687653</v>
       </c>
       <c r="F96">
-        <v>0.003607171208721838</v>
+        <v>0.04631885583827998</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1770286355318844</v>
+        <v>-0.1891897856955137</v>
       </c>
       <c r="C97">
-        <v>-0.03268250193310066</v>
+        <v>0.009963760016730374</v>
       </c>
       <c r="D97">
-        <v>0.04470822231890706</v>
+        <v>0.01049821015170493</v>
       </c>
       <c r="E97">
-        <v>-0.1123060721187572</v>
+        <v>-0.01587126011621755</v>
       </c>
       <c r="F97">
-        <v>0.8527191286248835</v>
+        <v>-0.1551414391709244</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2428788313009264</v>
+        <v>-0.205306801146398</v>
       </c>
       <c r="C98">
-        <v>0.007277927723465261</v>
+        <v>-0.007136249280037652</v>
       </c>
       <c r="D98">
-        <v>-0.01632571035367109</v>
+        <v>-0.009575659918736145</v>
       </c>
       <c r="E98">
-        <v>-0.08749560836667479</v>
+        <v>0.09851066353333252</v>
       </c>
       <c r="F98">
-        <v>-0.01562162595410012</v>
+        <v>-0.1105141115948493</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0398790381978897</v>
+        <v>-0.05550166273233588</v>
       </c>
       <c r="C99">
-        <v>0.007907762821431069</v>
+        <v>0.004117984046579309</v>
       </c>
       <c r="D99">
-        <v>0.03738033156399016</v>
+        <v>-0.03639801111114899</v>
       </c>
       <c r="E99">
-        <v>-0.01953242450771187</v>
+        <v>-0.02754999827769067</v>
       </c>
       <c r="F99">
-        <v>-0.00973829548025291</v>
+        <v>0.002717282720626838</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.04483442196762331</v>
+        <v>-0.1223760567288313</v>
       </c>
       <c r="C100">
-        <v>-0.1005546594726132</v>
+        <v>0.05218131541008101</v>
       </c>
       <c r="D100">
-        <v>0.1973884640483196</v>
+        <v>-0.3490269596844859</v>
       </c>
       <c r="E100">
-        <v>0.04427351445321433</v>
+        <v>0.8933020178971982</v>
       </c>
       <c r="F100">
-        <v>0.0508383401356429</v>
+        <v>-0.0729726481041683</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02957814118107549</v>
+        <v>-0.02692857112740129</v>
       </c>
       <c r="C101">
-        <v>-0.008101479522879944</v>
+        <v>-0.008594567220719291</v>
       </c>
       <c r="D101">
-        <v>0.001127732101835844</v>
+        <v>-0.03013171331427428</v>
       </c>
       <c r="E101">
-        <v>0.03761950451466956</v>
+        <v>-0.01169392481240692</v>
       </c>
       <c r="F101">
-        <v>-0.02782642623453658</v>
+        <v>-0.0166106572802134</v>
       </c>
     </row>
     <row r="102" spans="1:6">
